--- a/data/train.xlsx
+++ b/data/train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonabc\ZLKT-XT-1808\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsong\law_learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DCF5C-784D-4FE3-911E-3B7F4C854F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393AD0A-CA63-4A7F-8AAB-0C079CCE35DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1289,7 +1289,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1318,7 +1318,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[标注数据集.xlsx]Sheet2!数据透视表9</c:name>
+    <c:name>[train.xlsx]Sheet2!数据透视表9</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1397,51 +1397,20 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9206974128233973E-2"/>
+          <c:y val="0.38104057704465771"/>
+          <c:w val="0.91079302587176603"/>
+          <c:h val="0.4015819874705443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1455,7 +1424,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>汇总</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2308,7 +2277,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Snowman" refreshedDate="43699.856208449077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="166" xr:uid="{551ABC91-2F21-4A07-8A0E-75D919A52577}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F167" sheet="Sheet1"/>
+    <worksheetSource ref="A16" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="number" numFmtId="0">
@@ -4062,16 +4031,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DEF52-E523-4267-BEF9-460A27295C28}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4161,6 +4130,11 @@
       </c>
       <c r="B10" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="322">
+      <c r="A16" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4174,19 +4148,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.9140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.200000000000003" customHeight="1">
+    <row r="1" spans="1:6" ht="37.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4220,11 +4194,8 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.2">
+    </row>
+    <row r="3" spans="1:6" ht="26.5">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4238,7 +4209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="37.200000000000003">
+    <row r="4" spans="1:6" ht="39.5">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.2">
+    <row r="5" spans="1:6" ht="26.5">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4266,7 +4237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="37.200000000000003">
+    <row r="6" spans="1:6" ht="39.5">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4280,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="37.200000000000003">
+    <row r="7" spans="1:6" ht="26.5">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4294,7 +4265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.200000000000003">
+    <row r="8" spans="1:6" ht="39.5">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4308,7 +4279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49.2">
+    <row r="9" spans="1:6" ht="52.5">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4322,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="37.200000000000003">
+    <row r="10" spans="1:6" ht="26.5">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4336,7 +4307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="49.2">
+    <row r="11" spans="1:6" ht="39.5">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.2">
+    <row r="12" spans="1:6" ht="26.5">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4364,7 +4335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="97.2">
+    <row r="13" spans="1:6" ht="91.5">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4378,7 +4349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.2">
+    <row r="14" spans="1:6" ht="26.5">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4392,7 +4363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="49.2">
+    <row r="15" spans="1:6" ht="39.5">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="48">
+    <row r="16" spans="1:6" ht="52">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -4420,7 +4391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="49.2">
+    <row r="17" spans="2:5" ht="39.5">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -4434,7 +4405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="25.2">
+    <row r="18" spans="2:5" ht="26.5">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +4419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="37.200000000000003">
+    <row r="19" spans="2:5" ht="26.5">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -4462,7 +4433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="37.200000000000003">
+    <row r="20" spans="2:5" ht="39.5">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4476,7 +4447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="25.2">
+    <row r="21" spans="2:5" ht="26.5">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="121.2">
+    <row r="22" spans="2:5" ht="117.5">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4504,7 +4475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="97.2">
+    <row r="23" spans="2:5" ht="91.5">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -4518,7 +4489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="49.2">
+    <row r="24" spans="2:5" ht="52.5">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="73.2">
+    <row r="25" spans="2:5" ht="78.5">
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
@@ -4546,7 +4517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="37.200000000000003">
+    <row r="26" spans="2:5" ht="39.5">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
@@ -4560,7 +4531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="25.2">
+    <row r="27" spans="2:5" ht="26.5">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
@@ -4574,7 +4545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="49.2">
+    <row r="28" spans="2:5" ht="52.5">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -4588,7 +4559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="25.2">
+    <row r="29" spans="2:5" ht="26.5">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +4573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="61.2">
+    <row r="30" spans="2:5" ht="52.5">
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="25.2">
+    <row r="31" spans="2:5" ht="26.5">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="85.2">
+    <row r="32" spans="2:5" ht="65.5">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -4644,7 +4615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="37.200000000000003">
+    <row r="33" spans="2:5" ht="39.5">
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
@@ -4658,7 +4629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="25.2">
+    <row r="34" spans="2:5" ht="26.5">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="97.2">
+    <row r="35" spans="2:5" ht="91.5">
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
@@ -4686,7 +4657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="25.2">
+    <row r="36" spans="2:5" ht="26.5">
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
@@ -4700,7 +4671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="25.2">
+    <row r="37" spans="2:5" ht="26.5">
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
@@ -4714,7 +4685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="49.2">
+    <row r="38" spans="2:5" ht="39.5">
       <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4728,7 +4699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="37.200000000000003">
+    <row r="39" spans="2:5" ht="39.5">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -4742,7 +4713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="121.2">
+    <row r="40" spans="2:5" ht="104.5">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -4770,7 +4741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="61.2">
+    <row r="42" spans="2:5" ht="65.5">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
@@ -4784,7 +4755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="73.2">
+    <row r="43" spans="2:5" ht="65.5">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="49.2">
+    <row r="44" spans="2:5" ht="39.5">
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
@@ -4812,7 +4783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="25.2">
+    <row r="45" spans="2:5" ht="26.5">
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="25.2">
+    <row r="46" spans="2:5" ht="26.5">
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
@@ -4840,7 +4811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="49.2">
+    <row r="47" spans="2:5" ht="39.5">
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
@@ -4854,7 +4825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="37.200000000000003">
+    <row r="48" spans="2:5" ht="39.5">
       <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
@@ -4868,7 +4839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="61.2">
+    <row r="49" spans="2:5" ht="65.5">
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
@@ -4882,7 +4853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="37.200000000000003">
+    <row r="50" spans="2:5" ht="39.5">
       <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
@@ -4896,7 +4867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="49.2">
+    <row r="51" spans="2:5" ht="52.5">
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
@@ -4910,7 +4881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="37.200000000000003">
+    <row r="52" spans="2:5" ht="26.5">
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
@@ -4924,7 +4895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="25.2">
+    <row r="53" spans="2:5" ht="26.5">
       <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
@@ -4938,7 +4909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="73.2">
+    <row r="54" spans="2:5" ht="78.5">
       <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
@@ -4952,7 +4923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="85.2">
+    <row r="55" spans="2:5" ht="91.5">
       <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
@@ -4966,7 +4937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="37.200000000000003">
+    <row r="56" spans="2:5" ht="39.5">
       <c r="B56" s="1" t="s">
         <v>2</v>
       </c>
@@ -4980,7 +4951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="49.2">
+    <row r="57" spans="2:5" ht="39.5">
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +4965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="37.200000000000003">
+    <row r="58" spans="2:5" ht="26.5">
       <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
@@ -5008,7 +4979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="25.2">
+    <row r="59" spans="2:5" ht="26.5">
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
@@ -5022,7 +4993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="97.2">
+    <row r="60" spans="2:5" ht="91.5">
       <c r="B60" s="1" t="s">
         <v>2</v>
       </c>
@@ -5036,7 +5007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="97.2">
+    <row r="61" spans="2:5" ht="91.5">
       <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
@@ -5050,7 +5021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="73.2">
+    <row r="62" spans="2:5" ht="65.5">
       <c r="B62" s="1" t="s">
         <v>2</v>
       </c>
@@ -5064,7 +5035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="73.2">
+    <row r="63" spans="2:5" ht="65.5">
       <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
@@ -5078,7 +5049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="121.2">
+    <row r="64" spans="2:5" ht="130.5">
       <c r="B64" s="1" t="s">
         <v>2</v>
       </c>
@@ -5092,7 +5063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="109.2">
+    <row r="65" spans="1:5" ht="117.5">
       <c r="B65" s="1" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +5077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="49.2">
+    <row r="66" spans="1:5" ht="39.5">
       <c r="B66" s="1" t="s">
         <v>2</v>
       </c>
@@ -5120,7 +5091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="61.2">
+    <row r="67" spans="1:5" ht="52.5">
       <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +5105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="85.2">
+    <row r="68" spans="1:5" ht="78.5">
       <c r="B68" s="1" t="s">
         <v>2</v>
       </c>
@@ -5148,7 +5119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="97.2">
+    <row r="69" spans="1:5" ht="91.5">
       <c r="B69" s="1" t="s">
         <v>2</v>
       </c>
@@ -5162,7 +5133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="85.2">
+    <row r="70" spans="1:5" ht="91.5">
       <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5147,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.2">
+    <row r="71" spans="1:5" ht="26.5">
       <c r="B71" s="1" t="s">
         <v>2</v>
       </c>
@@ -5190,7 +5161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.2">
+    <row r="72" spans="1:5">
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
@@ -5204,7 +5175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="37.200000000000003">
+    <row r="73" spans="1:5" ht="26.5">
       <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
@@ -5218,7 +5189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="61.2">
+    <row r="74" spans="1:5" ht="52.5">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
@@ -5232,7 +5203,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="37.200000000000003">
+    <row r="75" spans="1:5" ht="39.5">
       <c r="B75" s="1" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="49.2">
+    <row r="76" spans="1:5" ht="39.5">
       <c r="B76" s="1" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="49.2">
+    <row r="77" spans="1:5" ht="52.5">
       <c r="A77">
         <v>13</v>
       </c>
@@ -5277,7 +5248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.2">
+    <row r="78" spans="1:5" ht="26.5">
       <c r="B78" s="1" t="s">
         <v>94</v>
       </c>
@@ -5291,7 +5262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="109.2">
+    <row r="79" spans="1:5" ht="117.5">
       <c r="B79" s="1" t="s">
         <v>94</v>
       </c>
@@ -5305,7 +5276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="121.2">
+    <row r="80" spans="1:5" ht="117.5">
       <c r="B80" s="1" t="s">
         <v>94</v>
       </c>
@@ -5319,7 +5290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="25.2">
+    <row r="81" spans="2:5" ht="26.5">
       <c r="B81" s="1" t="s">
         <v>94</v>
       </c>
@@ -5333,7 +5304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="37.200000000000003">
+    <row r="82" spans="2:5" ht="39.5">
       <c r="B82" s="1" t="s">
         <v>94</v>
       </c>
@@ -5375,7 +5346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="37.200000000000003">
+    <row r="85" spans="2:5" ht="39.5">
       <c r="B85" s="1" t="s">
         <v>94</v>
       </c>
@@ -5389,7 +5360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="145.19999999999999">
+    <row r="86" spans="2:5" ht="143.5">
       <c r="B86" s="1" t="s">
         <v>94</v>
       </c>
@@ -5403,7 +5374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="169.2">
+    <row r="87" spans="2:5" ht="169.5">
       <c r="B87" s="1" t="s">
         <v>94</v>
       </c>
@@ -5417,7 +5388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="157.19999999999999">
+    <row r="88" spans="2:5" ht="156.5">
       <c r="B88" s="1" t="s">
         <v>94</v>
       </c>
@@ -5431,7 +5402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="109.2">
+    <row r="89" spans="2:5" ht="117.5">
       <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
@@ -5445,7 +5416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="49.2">
+    <row r="90" spans="2:5" ht="39.5">
       <c r="B90" s="1" t="s">
         <v>94</v>
       </c>
@@ -5459,7 +5430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="73.2">
+    <row r="91" spans="2:5" ht="65.5">
       <c r="B91" s="1" t="s">
         <v>94</v>
       </c>
@@ -5473,7 +5444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="25.2">
+    <row r="92" spans="2:5">
       <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
@@ -5487,7 +5458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="37.200000000000003">
+    <row r="93" spans="2:5" ht="26.5">
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
@@ -5501,7 +5472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="61.2">
+    <row r="94" spans="2:5" ht="65.5">
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
@@ -5515,7 +5486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="37.200000000000003">
+    <row r="95" spans="2:5" ht="26.5">
       <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
@@ -5529,7 +5500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="49.2">
+    <row r="96" spans="2:5" ht="52.5">
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
@@ -5543,7 +5514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="25.2">
+    <row r="97" spans="2:5" ht="26.5">
       <c r="B97" s="1" t="s">
         <v>94</v>
       </c>
@@ -5557,7 +5528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="61.2">
+    <row r="98" spans="2:5" ht="65.5">
       <c r="B98" s="1" t="s">
         <v>94</v>
       </c>
@@ -5571,7 +5542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="25.2">
+    <row r="99" spans="2:5" ht="26.5">
       <c r="B99" s="1" t="s">
         <v>94</v>
       </c>
@@ -5599,7 +5570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="49.2">
+    <row r="101" spans="2:5" ht="39.5">
       <c r="B101" s="1" t="s">
         <v>94</v>
       </c>
@@ -5613,7 +5584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="25.2">
+    <row r="102" spans="2:5" ht="26.5">
       <c r="B102" s="1" t="s">
         <v>94</v>
       </c>
@@ -5627,7 +5598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="25.2">
+    <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
         <v>94</v>
       </c>
@@ -5641,7 +5612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="145.19999999999999">
+    <row r="104" spans="2:5" ht="143.5">
       <c r="B104" s="1" t="s">
         <v>94</v>
       </c>
@@ -5669,7 +5640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="85.2">
+    <row r="106" spans="2:5" ht="91.5">
       <c r="B106" s="1" t="s">
         <v>94</v>
       </c>
@@ -5683,7 +5654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="25.2">
+    <row r="107" spans="2:5" ht="26.5">
       <c r="B107" s="1" t="s">
         <v>94</v>
       </c>
@@ -5697,7 +5668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="25.2">
+    <row r="108" spans="2:5" ht="26.5">
       <c r="B108" s="1" t="s">
         <v>94</v>
       </c>
@@ -5711,7 +5682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="37.200000000000003">
+    <row r="109" spans="2:5" ht="39.5">
       <c r="B109" s="1" t="s">
         <v>94</v>
       </c>
@@ -5725,7 +5696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="61.2">
+    <row r="110" spans="2:5" ht="52.5">
       <c r="B110" s="1" t="s">
         <v>94</v>
       </c>
@@ -5739,7 +5710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="49.2">
+    <row r="111" spans="2:5" ht="52.5">
       <c r="B111" s="1" t="s">
         <v>94</v>
       </c>
@@ -5753,7 +5724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="49.2">
+    <row r="112" spans="2:5" ht="52.5">
       <c r="B112" s="1" t="s">
         <v>94</v>
       </c>
@@ -5767,7 +5738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="25.2">
+    <row r="113" spans="2:5" ht="26.5">
       <c r="B113" s="1" t="s">
         <v>94</v>
       </c>
@@ -5781,7 +5752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="25.2">
+    <row r="114" spans="2:5">
       <c r="B114" s="1" t="s">
         <v>94</v>
       </c>
@@ -5795,7 +5766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="25.2">
+    <row r="115" spans="2:5" ht="26.5">
       <c r="B115" s="1" t="s">
         <v>94</v>
       </c>
@@ -5809,7 +5780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="73.2">
+    <row r="116" spans="2:5" ht="65.5">
       <c r="B116" s="1" t="s">
         <v>94</v>
       </c>
@@ -5823,7 +5794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="85.2">
+    <row r="117" spans="2:5" ht="78.5">
       <c r="B117" s="1" t="s">
         <v>94</v>
       </c>
@@ -5837,7 +5808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="25.2">
+    <row r="118" spans="2:5" ht="26.5">
       <c r="B118" s="1" t="s">
         <v>94</v>
       </c>
@@ -5851,7 +5822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="73.2">
+    <row r="119" spans="2:5" ht="65.5">
       <c r="B119" s="1" t="s">
         <v>94</v>
       </c>
@@ -5865,7 +5836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="37.200000000000003">
+    <row r="120" spans="2:5" ht="39.5">
       <c r="B120" s="1" t="s">
         <v>94</v>
       </c>
@@ -5879,7 +5850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="37.200000000000003">
+    <row r="121" spans="2:5" ht="39.5">
       <c r="B121" s="1" t="s">
         <v>94</v>
       </c>
@@ -5893,7 +5864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="49.2">
+    <row r="122" spans="2:5" ht="52.5">
       <c r="B122" s="1" t="s">
         <v>94</v>
       </c>
@@ -5907,7 +5878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="25.2">
+    <row r="123" spans="2:5" ht="26.5">
       <c r="B123" s="1" t="s">
         <v>94</v>
       </c>
@@ -5921,7 +5892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="37.200000000000003">
+    <row r="124" spans="2:5" ht="26.5">
       <c r="B124" s="1" t="s">
         <v>94</v>
       </c>
@@ -5935,7 +5906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="49.2">
+    <row r="125" spans="2:5" ht="52.5">
       <c r="B125" s="1" t="s">
         <v>94</v>
       </c>
@@ -5949,7 +5920,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="97.2">
+    <row r="126" spans="2:5" ht="91.5">
       <c r="B126" s="1" t="s">
         <v>94</v>
       </c>
@@ -5963,7 +5934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="85.2">
+    <row r="127" spans="2:5" ht="91.5">
       <c r="B127" s="1" t="s">
         <v>94</v>
       </c>
@@ -5977,7 +5948,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="49.2">
+    <row r="128" spans="2:5" ht="52.5">
       <c r="B128" s="1" t="s">
         <v>94</v>
       </c>
@@ -5991,7 +5962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="25.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>94</v>
       </c>
@@ -6005,7 +5976,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="25.2">
+    <row r="130" spans="2:5" ht="26.5">
       <c r="B130" s="1" t="s">
         <v>94</v>
       </c>
@@ -6019,7 +5990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="49.2">
+    <row r="131" spans="2:5" ht="39.5">
       <c r="B131" s="1" t="s">
         <v>150</v>
       </c>
@@ -6047,7 +6018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="37.200000000000003">
+    <row r="133" spans="2:5" ht="26.5">
       <c r="B133" s="1" t="s">
         <v>150</v>
       </c>
@@ -6061,7 +6032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="37.200000000000003">
+    <row r="134" spans="2:5" ht="39.5">
       <c r="B134" s="1" t="s">
         <v>150</v>
       </c>
@@ -6075,7 +6046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="49.2">
+    <row r="135" spans="2:5" ht="39.5">
       <c r="B135" s="1" t="s">
         <v>150</v>
       </c>
@@ -6089,7 +6060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="97.2">
+    <row r="136" spans="2:5" ht="91.5">
       <c r="B136" s="1" t="s">
         <v>150</v>
       </c>
@@ -6103,7 +6074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="37.200000000000003">
+    <row r="137" spans="2:5" ht="39.5">
       <c r="B137" s="1" t="s">
         <v>150</v>
       </c>
@@ -6117,7 +6088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="97.2">
+    <row r="138" spans="2:5" ht="91.5">
       <c r="B138" s="1" t="s">
         <v>150</v>
       </c>
@@ -6131,7 +6102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="25.2">
+    <row r="139" spans="2:5" ht="26.5">
       <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
@@ -6145,7 +6116,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="25.2">
+    <row r="140" spans="2:5" ht="26.5">
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
@@ -6159,7 +6130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="37.200000000000003">
+    <row r="141" spans="2:5" ht="39.5">
       <c r="B141" s="1" t="s">
         <v>150</v>
       </c>
@@ -6187,7 +6158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="25.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
         <v>212</v>
       </c>
@@ -6215,7 +6186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="61.2">
+    <row r="145" spans="2:5" ht="65.5">
       <c r="B145" s="1" t="s">
         <v>212</v>
       </c>
@@ -6229,7 +6200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="37.200000000000003">
+    <row r="146" spans="2:5" ht="26.5">
       <c r="B146" s="1" t="s">
         <v>212</v>
       </c>
@@ -6243,7 +6214,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="37.200000000000003">
+    <row r="147" spans="2:5" ht="39.5">
       <c r="B147" s="1" t="s">
         <v>212</v>
       </c>
@@ -6257,7 +6228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="85.2">
+    <row r="148" spans="2:5" ht="78.5">
       <c r="B148" s="1" t="s">
         <v>212</v>
       </c>
@@ -6271,7 +6242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="97.2">
+    <row r="149" spans="2:5" ht="78.5">
       <c r="B149" s="1" t="s">
         <v>212</v>
       </c>
@@ -6285,7 +6256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="97.2">
+    <row r="150" spans="2:5" ht="78.5">
       <c r="B150" s="1" t="s">
         <v>212</v>
       </c>
@@ -6299,7 +6270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="37.200000000000003">
+    <row r="151" spans="2:5" ht="26.5">
       <c r="B151" s="1" t="s">
         <v>212</v>
       </c>
@@ -6313,7 +6284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="25.2">
+    <row r="152" spans="2:5" ht="26.5">
       <c r="B152" s="1" t="s">
         <v>212</v>
       </c>
@@ -6327,7 +6298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="61.2">
+    <row r="153" spans="2:5" ht="65.5">
       <c r="B153" s="1" t="s">
         <v>212</v>
       </c>
@@ -6341,7 +6312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="25.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="1" t="s">
         <v>212</v>
       </c>
@@ -6355,7 +6326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="25.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="1" t="s">
         <v>212</v>
       </c>
@@ -6369,7 +6340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="73.2">
+    <row r="156" spans="2:5" ht="65.5">
       <c r="B156" s="1" t="s">
         <v>212</v>
       </c>
@@ -6383,7 +6354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="121.2">
+    <row r="157" spans="2:5" ht="130.5">
       <c r="B157" s="1" t="s">
         <v>212</v>
       </c>
@@ -6397,7 +6368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="25.2">
+    <row r="158" spans="2:5" ht="26.5">
       <c r="B158" s="1" t="s">
         <v>212</v>
       </c>
@@ -6411,7 +6382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="37.200000000000003">
+    <row r="159" spans="2:5" ht="39.5">
       <c r="B159" s="1" t="s">
         <v>212</v>
       </c>
@@ -6425,7 +6396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="49.2">
+    <row r="160" spans="2:5" ht="52.5">
       <c r="B160" s="1" t="s">
         <v>212</v>
       </c>
@@ -6439,7 +6410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="97.2">
+    <row r="161" spans="2:6" ht="91.5">
       <c r="B161" s="1" t="s">
         <v>212</v>
       </c>
@@ -6453,7 +6424,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="73.2">
+    <row r="162" spans="2:6" ht="78.5">
       <c r="B162" s="1" t="s">
         <v>212</v>
       </c>
@@ -6467,7 +6438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="25.2">
+    <row r="163" spans="2:6" ht="26.5">
       <c r="B163" s="1" t="s">
         <v>212</v>
       </c>
@@ -6481,7 +6452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="37.200000000000003">
+    <row r="164" spans="2:6" ht="26.5">
       <c r="B164" s="1" t="s">
         <v>212</v>
       </c>
@@ -6495,7 +6466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="37.200000000000003">
+    <row r="165" spans="2:6" ht="39.5">
       <c r="B165" s="1" t="s">
         <v>212</v>
       </c>
@@ -6509,7 +6480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="37.200000000000003">
+    <row r="166" spans="2:6" ht="26.5">
       <c r="B166" s="1" t="s">
         <v>212</v>
       </c>
@@ -6523,7 +6494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="49.2">
+    <row r="167" spans="2:6" ht="52.5">
       <c r="B167" s="1" t="s">
         <v>212</v>
       </c>
@@ -6537,7 +6508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="49.2">
+    <row r="168" spans="2:6" ht="52.5">
       <c r="B168" s="1" t="s">
         <v>196</v>
       </c>
@@ -6568,7 +6539,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="37.200000000000003">
+    <row r="170" spans="2:6" ht="26.5">
       <c r="B170" s="1" t="s">
         <v>196</v>
       </c>
@@ -6582,7 +6553,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="37.200000000000003">
+    <row r="171" spans="2:6" ht="39.5">
       <c r="B171" s="1" t="s">
         <v>196</v>
       </c>
@@ -6607,7 +6578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="37.200000000000003">
+    <row r="173" spans="2:6" ht="39.5">
       <c r="B173" s="1" t="s">
         <v>196</v>
       </c>
@@ -6621,7 +6592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="25.2">
+    <row r="174" spans="2:6" ht="26.5">
       <c r="B174" s="1" t="s">
         <v>196</v>
       </c>
@@ -6635,7 +6606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="37.200000000000003">
+    <row r="175" spans="2:6" ht="39.5">
       <c r="B175" s="1" t="s">
         <v>196</v>
       </c>
@@ -6649,7 +6620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="25.2">
+    <row r="176" spans="2:6" ht="26.5">
       <c r="B176" s="1" t="s">
         <v>196</v>
       </c>
@@ -6663,7 +6634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="25.2">
+    <row r="177" spans="2:5" ht="26.5">
       <c r="B177" s="1" t="s">
         <v>196</v>
       </c>
@@ -6677,7 +6648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="61.2">
+    <row r="178" spans="2:5" ht="52.5">
       <c r="B178" s="1" t="s">
         <v>196</v>
       </c>
@@ -6691,7 +6662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="37.200000000000003">
+    <row r="179" spans="2:5" ht="39.5">
       <c r="B179" s="1" t="s">
         <v>196</v>
       </c>
@@ -6705,7 +6676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="27.6">
+    <row r="180" spans="2:5" ht="28">
       <c r="B180" s="1" t="s">
         <v>213</v>
       </c>
@@ -6719,7 +6690,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="27.6">
+    <row r="181" spans="2:5" ht="28">
       <c r="B181" s="1" t="s">
         <v>213</v>
       </c>
@@ -6733,7 +6704,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="61.2">
+    <row r="182" spans="2:5" ht="52.5">
       <c r="B182" s="1" t="s">
         <v>213</v>
       </c>
@@ -6747,7 +6718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="49.2">
+    <row r="183" spans="2:5" ht="52.5">
       <c r="B183" s="1" t="s">
         <v>213</v>
       </c>
@@ -6761,7 +6732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="61.2">
+    <row r="184" spans="2:5" ht="65.5">
       <c r="B184" s="1" t="s">
         <v>213</v>
       </c>
@@ -6775,7 +6746,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="27.6">
+    <row r="185" spans="2:5" ht="28">
       <c r="B185" s="1" t="s">
         <v>213</v>
       </c>
@@ -6789,7 +6760,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="49.2">
+    <row r="186" spans="2:5" ht="52.5">
       <c r="B186" s="1" t="s">
         <v>213</v>
       </c>
@@ -6803,7 +6774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="37.200000000000003">
+    <row r="187" spans="2:5" ht="39.5">
       <c r="B187" s="1" t="s">
         <v>213</v>
       </c>
@@ -6817,7 +6788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="49.2">
+    <row r="188" spans="2:5" ht="39.5">
       <c r="B188" s="1" t="s">
         <v>213</v>
       </c>
@@ -6831,7 +6802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="61.2">
+    <row r="189" spans="2:5" ht="52.5">
       <c r="B189" s="1" t="s">
         <v>213</v>
       </c>
@@ -6845,7 +6816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="73.2">
+    <row r="190" spans="2:5" ht="65.5">
       <c r="B190" s="1" t="s">
         <v>213</v>
       </c>
@@ -6859,7 +6830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="49.2">
+    <row r="191" spans="2:5" ht="39.5">
       <c r="B191" s="1" t="s">
         <v>213</v>
       </c>
@@ -6873,7 +6844,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="61.2">
+    <row r="192" spans="2:5" ht="52.5">
       <c r="B192" s="1" t="s">
         <v>213</v>
       </c>
@@ -6887,7 +6858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="37.200000000000003">
+    <row r="193" spans="2:6" ht="28">
       <c r="B193" s="1" t="s">
         <v>213</v>
       </c>
@@ -6901,7 +6872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="27.6">
+    <row r="194" spans="2:6" ht="28">
       <c r="B194" s="1" t="s">
         <v>213</v>
       </c>
@@ -6915,7 +6886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="37.200000000000003">
+    <row r="195" spans="2:6" ht="39.5">
       <c r="B195" s="1" t="s">
         <v>213</v>
       </c>
@@ -6929,7 +6900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="27.6">
+    <row r="196" spans="2:6" ht="28">
       <c r="B196" s="1" t="s">
         <v>213</v>
       </c>
@@ -6943,7 +6914,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="61.2">
+    <row r="197" spans="2:6" ht="65.5">
       <c r="B197" s="1" t="s">
         <v>213</v>
       </c>
@@ -6957,7 +6928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="61.2">
+    <row r="198" spans="2:6" ht="52.5">
       <c r="B198" s="1" t="s">
         <v>213</v>
       </c>
@@ -6971,7 +6942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="27.6">
+    <row r="199" spans="2:6" ht="28">
       <c r="B199" s="1" t="s">
         <v>213</v>
       </c>
@@ -6985,7 +6956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="27.6">
+    <row r="200" spans="2:6" ht="28">
       <c r="B200" s="1" t="s">
         <v>213</v>
       </c>
@@ -6999,7 +6970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="2:6" ht="61.2">
+    <row r="201" spans="2:6" ht="52.5">
       <c r="B201" s="1" t="s">
         <v>213</v>
       </c>
@@ -7016,7 +6987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="27.6">
+    <row r="202" spans="2:6" ht="28">
       <c r="B202" s="1" t="s">
         <v>213</v>
       </c>
@@ -7030,7 +7001,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="27.6">
+    <row r="203" spans="2:6" ht="28">
       <c r="B203" s="1" t="s">
         <v>213</v>
       </c>
@@ -7044,7 +7015,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="2:6" ht="37.200000000000003">
+    <row r="204" spans="2:6" ht="39.5">
       <c r="B204" s="1" t="s">
         <v>213</v>
       </c>
@@ -7058,7 +7029,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="2:6" ht="37.200000000000003">
+    <row r="205" spans="2:6" ht="28">
       <c r="B205" s="1" t="s">
         <v>213</v>
       </c>
@@ -7072,7 +7043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="206" spans="2:6" ht="37.200000000000003">
+    <row r="206" spans="2:6" ht="39.5">
       <c r="B206" s="1" t="s">
         <v>213</v>
       </c>
@@ -7086,7 +7057,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="73.2">
+    <row r="207" spans="2:6" ht="78.5">
       <c r="B207" s="1" t="s">
         <v>213</v>
       </c>
@@ -7100,7 +7071,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="27.6">
+    <row r="208" spans="2:6" ht="28">
       <c r="B208" s="1" t="s">
         <v>242</v>
       </c>
@@ -7114,7 +7085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="27.6">
+    <row r="209" spans="2:5" ht="28">
       <c r="B209" s="1" t="s">
         <v>242</v>
       </c>
@@ -7128,7 +7099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="27.6">
+    <row r="210" spans="2:5" ht="28">
       <c r="B210" s="1" t="s">
         <v>242</v>
       </c>
@@ -7142,7 +7113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="49.2">
+    <row r="211" spans="2:5" ht="39.5">
       <c r="B211" s="1" t="s">
         <v>242</v>
       </c>
@@ -7156,7 +7127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="49.2">
+    <row r="212" spans="2:5" ht="39.5">
       <c r="B212" s="1" t="s">
         <v>242</v>
       </c>
@@ -7170,7 +7141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="27.6">
+    <row r="213" spans="2:5" ht="28">
       <c r="B213" s="1" t="s">
         <v>242</v>
       </c>
@@ -7184,7 +7155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="85.2">
+    <row r="214" spans="2:5" ht="91.5">
       <c r="B214" s="1" t="s">
         <v>242</v>
       </c>
@@ -7198,7 +7169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="37.200000000000003">
+    <row r="215" spans="2:5" ht="39.5">
       <c r="B215" s="1" t="s">
         <v>242</v>
       </c>
